--- a/output/AIC models/All_AIC_CBW.xlsx
+++ b/output/AIC models/All_AIC_CBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriswall/Desktop/Research and Teaching/github/Pyromania/output/AIC models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77310F84-FA89-BD4A-B3BE-9AF7E604CC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537EEA8A-F38D-AF41-945F-64B65714ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="500" windowWidth="23840" windowHeight="12900" xr2:uid="{50C07B49-6051-9E4B-8346-FADD7F842458}"/>
+    <workbookView xWindow="7120" yWindow="500" windowWidth="23840" windowHeight="12900" xr2:uid="{50C07B49-6051-9E4B-8346-FADD7F842458}"/>
   </bookViews>
   <sheets>
     <sheet name="NEP NER O2" sheetId="2" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D61CC64-020A-D047-8A96-414B92151463}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,8 +757,12 @@
       <c r="D11" s="1">
         <v>7.36170878631847</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>187.36964201690901</v>
+      </c>
+      <c r="F11" s="1">
+        <f>E11-E13</f>
+        <v>-5.162307113467989</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1000,15 +1005,18 @@
       <c r="F27" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1037,25 +1045,31 @@
       <c r="D31" s="1">
         <v>6.74689986505925</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="5">
         <v>221.51014654772601</v>
       </c>
+      <c r="F31" s="1">
+        <f>E31-E32</f>
+        <v>-3.9139086377179808</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
         <v>5.63590629228141</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>225.42405518544399</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1083,7 @@
         <v>258.46159618788897</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>13</v>
       </c>
@@ -1079,25 +1093,31 @@
       <c r="D34" s="1">
         <v>6.4938615052111501</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="5">
         <v>254.272062604985</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="F34" s="1">
+        <f>E34-E35</f>
+        <v>-3.1399210415840173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
         <v>5.4128651891956796</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <v>257.41198364656901</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1131,7 @@
         <v>230.63784291644799</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>12</v>
       </c>
@@ -1121,25 +1141,31 @@
       <c r="D37" s="1">
         <v>6.7603173302783501</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <v>228.88675907876501</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="F37" s="1">
+        <f>E37-E38</f>
+        <v>-4.7392853823940015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
         <v>5.6203440146111703</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="4">
         <v>233.62604446115901</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>11</v>
       </c>
@@ -1149,11 +1175,15 @@
       <c r="D39" s="1">
         <v>8.3651957992709391</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="5">
         <v>231.210174171441</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="1">
+        <f>E39-E41</f>
+        <v>-4.8364500156660029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>11</v>
       </c>
@@ -1167,21 +1197,23 @@
         <v>237.81239009303499</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
         <v>3.0006578681048599</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="4">
         <v>236.046624187107</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>10</v>
       </c>
@@ -1191,11 +1223,15 @@
       <c r="D42" s="1">
         <v>8.2016665159789603</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="5">
         <v>246.91704525270501</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="1">
+        <f>E42-E44</f>
+        <v>-4.2560012292539966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -1209,21 +1245,23 @@
         <v>251.67650833028901</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
         <v>3.0002150449788698</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="4">
         <v>251.17304648195901</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>9</v>
       </c>
@@ -1233,11 +1271,15 @@
       <c r="D45" s="1">
         <v>8.7839938547299408</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="5">
         <v>229.53470770212601</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="1">
+        <f>E45-E47</f>
+        <v>-7.4451758720969963</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>9</v>
       </c>
@@ -1251,21 +1293,23 @@
         <v>238.46695280866899</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
         <v>3.00021135045812</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="4">
         <v>236.97988357422301</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
@@ -1275,11 +1319,15 @@
       <c r="D48" s="1">
         <v>9.9582004405173805</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="5">
         <v>198.28904484510599</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="1">
+        <f>E48-E50</f>
+        <v>-22.795976332825006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1293,21 +1341,23 @@
         <v>222.291456772055</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
         <v>5.4730735816798397</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="4">
         <v>221.085021177931</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1317,11 +1367,15 @@
       <c r="D51" s="1">
         <v>12.410600908869499</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="5">
         <v>215.33044247510699</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="1">
+        <f>E51-E53</f>
+        <v>-22.893756037863994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
@@ -1335,21 +1389,23 @@
         <v>237.23887146610301</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
         <v>5.8832978541394603</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="4">
         <v>238.22419851297099</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1359,11 +1415,15 @@
       <c r="D54" s="1">
         <v>10.1747551071659</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="5">
         <v>195.663626558056</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="1">
+        <f>E54-E56</f>
+        <v>-25.420559607927004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -1377,21 +1437,23 @@
         <v>221.37022369113899</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
         <v>5.53750345322333</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="4">
         <v>221.084186165983</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1467,7 @@
         <v>208.229993044438</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -1419,21 +1481,26 @@
         <v>208.224489007519</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
         <v>4.0606296750509996</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="8">
         <v>206.26005915672701</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="4">
+        <f>E59-E59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
@@ -1443,11 +1510,15 @@
       <c r="D60" s="1">
         <v>7.0969574993010696</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="5">
         <v>229.00688833450701</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="1">
+        <f>E60-E62</f>
+        <v>-2.0163205962279847</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -1461,21 +1532,23 @@
         <v>232.513409258362</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C62" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
         <v>4.6571711556080597</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="4">
         <v>231.023208930735</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1562,7 @@
         <v>198.489473762817</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1576,7 @@
         <v>196.60244942354601</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
@@ -1513,8 +1586,12 @@
       <c r="D65" s="1">
         <v>3.0809820673756998</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="5">
         <v>195.01885058435499</v>
+      </c>
+      <c r="F65" s="4">
+        <f>E65-E65</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/AIC models/All_AIC_CBW.xlsx
+++ b/output/AIC models/All_AIC_CBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriswall/Desktop/Research and Teaching/github/Pyromania/output/AIC models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537EEA8A-F38D-AF41-945F-64B65714ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A9DE1-7523-7140-950D-CBF566153BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="500" windowWidth="23840" windowHeight="12900" xr2:uid="{50C07B49-6051-9E4B-8346-FADD7F842458}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="23840" windowHeight="12900" activeTab="3" xr2:uid="{50C07B49-6051-9E4B-8346-FADD7F842458}"/>
   </bookViews>
   <sheets>
     <sheet name="NEP NER O2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CO2 CH4" sheetId="4" r:id="rId3"/>
     <sheet name="d15N sage CN" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
   <si>
     <t>~s(plant.mass..g)</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Treatment + Type + s(plant.mass..g, by=Treatment)</t>
   </si>
   <si>
-    <t>Treatment * Type + s(plant.mass..g, by=Treatment)</t>
-  </si>
-  <si>
     <t>C:N</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Time point</t>
+  </si>
+  <si>
+    <t>delta-AIC</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,11 +245,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,6 +269,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D61CC64-020A-D047-8A96-414B92151463}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,20 +601,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -651,6 +669,7 @@
       <c r="E4" s="4">
         <v>214.40349024232299</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -800,15 +819,18 @@
       <c r="E14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1601,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD93225-9DBE-D04C-BFA9-321A437FFA32}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,24 +1634,27 @@
     <col min="4" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1646,7 +1671,7 @@
         <v>3.1551586256083</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -1660,21 +1685,26 @@
         <v>0.95372973410233697</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>3.0797511126185202</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>-0.78635947860892097</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="4">
+        <f>E4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1684,11 +1714,15 @@
       <c r="D5" s="1">
         <v>10.8590734502957</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>146.82396832164901</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <f>E5-E7</f>
+        <v>-15.186952162197002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1702,21 +1736,23 @@
         <v>157.79333184835301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>5.4807058763068497</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>162.01092048384601</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1726,11 +1762,15 @@
       <c r="D8" s="1">
         <v>12.4612157128104</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>117.697010130118</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <f>E8-E10</f>
+        <v>-40.259362550676002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1744,21 +1784,23 @@
         <v>159.97066319304</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>5.3333535829864198</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>157.956372680794</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1768,11 +1810,15 @@
       <c r="D11" s="1">
         <v>8.2458337332925904</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>64.030740540675694</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <f>E11-E13</f>
+        <v>-12.103584492524703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1786,21 +1832,23 @@
         <v>69.728768380502999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>3.0000407418852602</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>76.134325033200398</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -1813,8 +1861,9 @@
       <c r="E14" s="1">
         <v>110.85389981307</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1828,32 +1877,40 @@
         <v>109.293534150805</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>4.3845864981927702</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="8">
         <v>108.63107133960899</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="F16" s="4">
+        <f>E16-E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1866,11 +1923,15 @@
       <c r="D19" s="1">
         <v>5.00005336968667</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="5">
         <v>-85.096546566646794</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="1">
+        <f>E19-E21</f>
+        <v>-0.56080860999149706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1884,21 +1945,23 @@
         <v>-83.420063581751805</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
         <v>3.0000821195801999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>-84.535737956655296</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -1912,7 +1975,7 @@
         <v>-7.8411392950173804</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1926,21 +1989,26 @@
         <v>-10.645546860467499</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
         <v>5.2640475584175004</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="8">
         <v>-12.618400938258301</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="4">
+        <f>E24-E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -1954,7 +2022,7 @@
         <v>-11.718630581617001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1964,25 +2032,31 @@
       <c r="D26" s="1">
         <v>6.9208509103160099</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <v>-18.056483375534398</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="F26" s="1">
+        <f>E26-E27</f>
+        <v>-3.010988466739299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
         <v>5.48837395328745</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>-15.045494908795099</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -1992,11 +2066,15 @@
       <c r="D28" s="1">
         <v>11.291013829211</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <v>-39.561446586929797</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
+        <f>E28-E30</f>
+        <v>-13.569989537321199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -2010,21 +2088,23 @@
         <v>-26.151783163046801</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
         <v>5.1009713076029799</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>-25.991457049608599</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -2034,11 +2114,15 @@
       <c r="D31" s="1">
         <v>6.9730135368131201</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="5">
         <v>-23.7428286611283</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="1">
+        <f>E31-E33</f>
+        <v>-6.3877512255180982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -2052,35 +2136,39 @@
         <v>-20.621981579891202</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
         <v>3.5841304615553198</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>-17.355077435610202</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>20</v>
       </c>
@@ -2090,11 +2178,15 @@
       <c r="D36" s="1">
         <v>9.8960222162390696</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="5">
         <v>100.076244462829</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="1">
+        <f>E36-E38</f>
+        <v>-16.848307513652998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -2108,7 +2200,7 @@
         <v>117.895623958664</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>20</v>
       </c>
@@ -2129,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5666E6C3-2864-EC47-A0A1-CF1CE5109FB0}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2140,24 +2232,27 @@
     <col min="3" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2170,11 +2265,15 @@
       <c r="D2" s="1">
         <v>8.7080287652692707</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>314.422087949466</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <f>E2-E4</f>
+        <v>-18.739873845634975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -2188,21 +2287,23 @@
         <v>326.90533145310201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>3.0005616560071098</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>333.16196179510098</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -2212,11 +2313,15 @@
       <c r="D5" s="1">
         <v>9.1282260423637709</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>420.54631573040803</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <f>E5-E7</f>
+        <v>-7.243557189628973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -2230,21 +2335,23 @@
         <v>421.35021588537802</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>5.3082719379568797</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>427.789872920037</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -2254,11 +2361,15 @@
       <c r="D8" s="1">
         <v>10.3680801275686</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>411.97334631259298</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <f>E8-E10</f>
+        <v>-14.370398899205043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -2272,21 +2383,23 @@
         <v>428.07212999187698</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>3.0005536694174499</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>426.34374521179802</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -2296,11 +2409,15 @@
       <c r="D11" s="1">
         <v>7.3078930971603198</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>417.542039267961</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <f>E11-E13</f>
+        <v>-11.136070183481991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -2314,32 +2431,37 @@
         <v>428.62382215071699</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>4.6392442401386704</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>428.67810945144299</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2352,11 +2474,15 @@
       <c r="D16" s="1">
         <v>5.0000437168226899</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="5">
         <v>-62.315985636612702</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="1">
+        <f>E16-E18</f>
+        <v>-3.0139309174017015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -2370,21 +2496,23 @@
         <v>-57.959800882034898</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>3.00008439008651</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>-59.302054719211</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -2394,11 +2522,15 @@
       <c r="D19" s="1">
         <v>9.2447439973041892</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="5">
         <v>-66.1605799285269</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="1">
+        <f>E19-E21</f>
+        <v>-4.8415644957318023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -2412,21 +2544,23 @@
         <v>-59.574988740630502</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>5.0725635925406296</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>-61.319015432795098</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -2436,11 +2570,12 @@
       <c r="D22" s="1">
         <v>5.88893651900639</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="10">
         <v>-29.3497108741701</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -2454,21 +2589,26 @@
         <v>-30.796347338895298</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>3.0002683390226101</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="8">
         <v>-32.129647588542198</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="4">
+        <f>E24-E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -2482,7 +2622,7 @@
         <v>0.298397702392668</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -2492,23 +2632,29 @@
       <c r="D26" s="1">
         <v>7.1283382511670004</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <v>-3.7781590886970902</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="F26" s="1">
+        <f>E26-E27</f>
+        <v>-2.2668083917461503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>5.9173222456520298</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>-1.51135069695094</v>
       </c>
+      <c r="F27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2517,378 +2663,355 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37667481-1140-394D-BAF5-EF9C4F2D8B13}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="D16:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1">
-        <v>13.7536777870046</v>
-      </c>
-      <c r="E2" s="1">
-        <v>481.16696433540801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12.862028185178801</v>
+      </c>
+      <c r="E2" s="5">
+        <v>354.09678524920997</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2-E4</f>
+        <v>-26.716801672129009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.7100831532344891</v>
+      </c>
+      <c r="E3" s="10">
+        <v>359.847851461039</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.0316783284654703</v>
+      </c>
+      <c r="E4" s="4">
+        <v>380.81358692133898</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1">
-        <v>12.8620281851787</v>
-      </c>
-      <c r="E3" s="1">
-        <v>479.35327150998398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.7100831532344696</v>
-      </c>
-      <c r="E4" s="1">
-        <v>485.10433772181301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.0316783284654703</v>
-      </c>
-      <c r="E5" s="1">
-        <v>506.07007318211203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="14">
+        <v>12.7580230681878</v>
+      </c>
+      <c r="E5" s="15">
+        <v>367.47081220440202</v>
+      </c>
+      <c r="F5" s="14">
+        <f>E5-E7</f>
+        <v>-24.118247554452978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
-        <v>13.7057800771881</v>
+        <v>8.2136488643732992</v>
       </c>
       <c r="E6" s="1">
-        <v>494.59161446031197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>385.58405230607201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.1158290320639503</v>
+      </c>
+      <c r="E7" s="10">
+        <v>391.589059758855</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1">
-        <v>12.7580230681878</v>
-      </c>
-      <c r="E7" s="1">
-        <v>492.72729846517598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="D9" s="1">
+        <v>12.8620281851787</v>
+      </c>
+      <c r="E9" s="5">
+        <v>479.35327150998398</v>
+      </c>
+      <c r="F9" s="1">
+        <f>E9-E11</f>
+        <v>-26.716801672128042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.7100831532344696</v>
+      </c>
+      <c r="E10" s="1">
+        <v>485.10433772181301</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6.0316783284654703</v>
+      </c>
+      <c r="E11" s="4">
+        <v>506.07007318211203</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8.2136488643732992</v>
-      </c>
-      <c r="E8" s="1">
-        <v>510.84053856684602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.1158290320639397</v>
-      </c>
-      <c r="E9" s="1">
-        <v>516.84554601962805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1">
-        <v>13.7536777870045</v>
-      </c>
-      <c r="E11" s="1">
-        <v>355.910478074634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="1">
-        <v>12.862028185178801</v>
-      </c>
-      <c r="E12" s="1">
-        <v>354.09678524920997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12.7580230681878</v>
+      </c>
+      <c r="E12" s="5">
+        <v>492.72729846517598</v>
+      </c>
+      <c r="F12" s="1">
+        <f>E12-E14</f>
+        <v>-24.118247554452068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1">
-        <v>8.7100831532344891</v>
+        <v>8.2136488643732992</v>
       </c>
       <c r="E13" s="1">
-        <v>359.847851461039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>510.84053856684602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="1">
-        <v>6.0316783284654703</v>
+        <v>6.1158290320639397</v>
       </c>
       <c r="E14" s="1">
-        <v>380.81358692133898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
+        <v>516.84554601962805</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1">
-        <v>13.7057800771882</v>
-      </c>
-      <c r="E15" s="1">
-        <v>369.33512819953899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="1">
-        <v>12.7580230681878</v>
-      </c>
-      <c r="E16" s="1">
-        <v>367.47081220440202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8.1357966848112806</v>
+      </c>
+      <c r="E16" s="5">
+        <v>286.99049789867502</v>
+      </c>
+      <c r="F16" s="12">
+        <f>E16-E18</f>
+        <v>-2.8985259619049657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="1">
-        <v>8.2136488643732992</v>
+        <v>7.0332723657797596</v>
       </c>
       <c r="E17" s="1">
-        <v>385.58405230607201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+        <v>291.33933303028698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.0273660938590004</v>
+      </c>
+      <c r="E18" s="4">
+        <v>289.88902386057998</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12.557609166888</v>
+      </c>
+      <c r="E19" s="5">
+        <v>223.727701409719</v>
+      </c>
+      <c r="F19" s="1">
+        <f>E19-E21</f>
+        <v>-59.885870585266019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.3933796590431999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>261.22379005788201</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1">
-        <v>6.1158290320639503</v>
-      </c>
-      <c r="E18" s="1">
-        <v>391.589059758855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1">
-        <v>9.1280667659964596</v>
-      </c>
-      <c r="E20" s="1">
-        <v>288.54443167961398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
       <c r="D21" s="1">
-        <v>8.1357966848112806</v>
+        <v>6.0284347972066499</v>
       </c>
       <c r="E21" s="1">
-        <v>286.99049789867502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1">
-        <v>7.0332723657797596</v>
-      </c>
-      <c r="E22" s="1">
-        <v>291.33933303028698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5.0273660938590004</v>
-      </c>
-      <c r="E23" s="1">
-        <v>289.88902386057998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1">
-        <v>13.644554674191101</v>
-      </c>
-      <c r="E24" s="1">
-        <v>222.26934458481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12.557609166888</v>
-      </c>
-      <c r="E25" s="1">
-        <v>223.727701409719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1">
-        <v>8.3933796590431999</v>
-      </c>
-      <c r="E26" s="1">
-        <v>261.22379005788201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1">
-        <v>6.0284347972066499</v>
-      </c>
-      <c r="E27" s="1">
         <v>283.61357199498502</v>
       </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/AIC models/All_AIC_CBW.xlsx
+++ b/output/AIC models/All_AIC_CBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriswall/Desktop/Research and Teaching/github/Pyromania/output/AIC models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A9DE1-7523-7140-950D-CBF566153BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5F396-096C-5542-B2D6-8BA329DC8C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="23840" windowHeight="12900" activeTab="3" xr2:uid="{50C07B49-6051-9E4B-8346-FADD7F842458}"/>
+    <workbookView xWindow="2440" yWindow="500" windowWidth="23840" windowHeight="12900" activeTab="2" xr2:uid="{50C07B49-6051-9E4B-8346-FADD7F842458}"/>
   </bookViews>
   <sheets>
     <sheet name="NEP NER O2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="52">
   <si>
     <t>~s(plant.mass..g)</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>delta-AIC</t>
+  </si>
+  <si>
+    <t>CO2.d13C</t>
+  </si>
+  <si>
+    <t>CH4.d13C</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,12 +639,12 @@
       <c r="D2" s="1">
         <v>8.1360361064275395</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="10">
         <v>214.15711929627801</v>
       </c>
       <c r="F2" s="1">
-        <f>E2-E4</f>
-        <v>-0.24637094604497634</v>
+        <f>E3-E4</f>
+        <v>-0.94252861369398033</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -651,7 +657,7 @@
       <c r="D3" s="1">
         <v>6.0771409423388301</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>213.46096162862901</v>
       </c>
     </row>
@@ -681,12 +687,12 @@
       <c r="D5" s="1">
         <v>6.4313985063898302</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="10">
         <v>177.51022756251601</v>
       </c>
       <c r="F5" s="1">
-        <f>E5-E7</f>
-        <v>-8.0971676634929963</v>
+        <f>E6-E7</f>
+        <v>-9.3478446079199955</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -699,7 +705,7 @@
       <c r="D6" s="1">
         <v>7.6989311634651498</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>176.25955061808901</v>
       </c>
     </row>
@@ -728,12 +734,12 @@
       <c r="D8" s="1">
         <v>10.987121814476801</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="10">
         <v>175.72912991677899</v>
       </c>
       <c r="F8" s="1">
-        <f>E8-E10</f>
-        <v>-5.4549511951110219</v>
+        <f>E9-E10</f>
+        <v>-5.9623252550269967</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -746,7 +752,7 @@
       <c r="D9" s="1">
         <v>7.2981502966448204</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>175.22175585686301</v>
       </c>
     </row>
@@ -2221,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5666E6C3-2864-EC47-A0A1-CF1CE5109FB0}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2656,6 +2662,407 @@
       </c>
       <c r="F27" s="3"/>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.0000588942117998</v>
+      </c>
+      <c r="E30" s="1">
+        <v>127.986221341247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.0001170451476398</v>
+      </c>
+      <c r="E31" s="5">
+        <v>126.402690273378</v>
+      </c>
+      <c r="F31" s="1">
+        <f>E31-E32</f>
+        <v>-3.7559534914890094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3.00010472912314</v>
+      </c>
+      <c r="E32" s="4">
+        <v>130.15864376486701</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8.7002653716665108</v>
+      </c>
+      <c r="E33" s="1">
+        <v>135.872565622548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6.4681870957262104</v>
+      </c>
+      <c r="E34" s="1">
+        <v>130.63079581966201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5.4816113064830896</v>
+      </c>
+      <c r="E35" s="8">
+        <v>129.13184911424401</v>
+      </c>
+      <c r="F35" s="4">
+        <f>E35-E35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.0041368977098202</v>
+      </c>
+      <c r="E36" s="1">
+        <v>153.585546562144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.5948117098969004</v>
+      </c>
+      <c r="E37" s="1">
+        <v>149.80052786786399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4.5959588026651303</v>
+      </c>
+      <c r="E38" s="8">
+        <v>148.88838409550399</v>
+      </c>
+      <c r="F38" s="4">
+        <f>E38-E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.9544194875308403</v>
+      </c>
+      <c r="E39" s="5">
+        <v>169.27380592933699</v>
+      </c>
+      <c r="F39" s="1">
+        <f>E39-E41</f>
+        <v>-1.7552723499200056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.0002163986046702</v>
+      </c>
+      <c r="E40" s="1">
+        <v>170.72175566303201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3.0002088370358799</v>
+      </c>
+      <c r="E41" s="4">
+        <v>171.02907827925699</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6.4118756598231901</v>
+      </c>
+      <c r="E44" s="1">
+        <v>30.1582488807781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5.3298916053492702</v>
+      </c>
+      <c r="E45" s="1">
+        <v>28.954259356705599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4.3841664283997002</v>
+      </c>
+      <c r="E46" s="8">
+        <v>27.102326279678898</v>
+      </c>
+      <c r="F46" s="4">
+        <f>E46-E46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7.5878700349944603</v>
+      </c>
+      <c r="E47" s="1">
+        <v>13.740843111411699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6.1687783840000598</v>
+      </c>
+      <c r="E48" s="1">
+        <v>12.8289767264618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="4">
+        <v>5.17979948135768</v>
+      </c>
+      <c r="E49" s="8">
+        <v>11.680737532135501</v>
+      </c>
+      <c r="F49" s="4">
+        <f>E49-E49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7.3824870851344704</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20.100037394672299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6.7727035405090303</v>
+      </c>
+      <c r="E51" s="1">
+        <v>13.717104127460701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5.78461087859157</v>
+      </c>
+      <c r="E52" s="8">
+        <v>12.751174142304301</v>
+      </c>
+      <c r="F52" s="4">
+        <f>E52-E52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8.4400944571893</v>
+      </c>
+      <c r="E53" s="5">
+        <v>68.981227328668993</v>
+      </c>
+      <c r="F53" s="1">
+        <f>E53-E55</f>
+        <v>-4.7845443613642118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6.923836582901</v>
+      </c>
+      <c r="E54" s="1">
+        <v>75.590331583464206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5.9745279979953301</v>
+      </c>
+      <c r="E55" s="4">
+        <v>73.765771690033205</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2665,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37667481-1140-394D-BAF5-EF9C4F2D8B13}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="D16:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
